--- a/사업계획최종.xlsx
+++ b/사업계획최종.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66EADF5-01D0-48DB-8D3B-BBE9F358FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EDF174-3450-4B5E-B340-FAA603D8CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27180" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="best" sheetId="2" r:id="rId2"/>
+    <sheet name="conservative" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>취사용</t>
   </si>
@@ -574,10 +576,10 @@
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4108,4 +4110,1950 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9212FAFB-79F3-4DC0-907C-138DA25AA401}">
+  <dimension ref="A1:AI13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="2"/>
+    <col min="26" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="14.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>46023</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22751</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5424834</v>
+      </c>
+      <c r="F2" s="2">
+        <v>97864</v>
+      </c>
+      <c r="G2" s="2">
+        <v>23888.55</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5696075.7000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>102757.2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5822721.4500000002</v>
+      </c>
+      <c r="K2" s="2">
+        <v>170397.15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>84811.650000000009</v>
+      </c>
+      <c r="M2" s="2">
+        <v>173465.25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>136746.75</v>
+      </c>
+      <c r="O2" s="2">
+        <v>167094.9</v>
+      </c>
+      <c r="P2" s="2">
+        <v>12671.4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>574789.95000000007</v>
+      </c>
+      <c r="R2" s="2">
+        <v>992013.75</v>
+      </c>
+      <c r="S2" s="2">
+        <v>23627.100000000002</v>
+      </c>
+      <c r="T2" s="2">
+        <v>23286.9</v>
+      </c>
+      <c r="U2" s="2">
+        <v>77448</v>
+      </c>
+      <c r="V2" s="2">
+        <v>9820.65</v>
+      </c>
+      <c r="W2" s="2">
+        <v>256060.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>46054</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>19941</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3789320</v>
+      </c>
+      <c r="F3" s="2">
+        <v>81883</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20938.05</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3978786</v>
+      </c>
+      <c r="I3" s="2">
+        <v>85977.150000000009</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4085701.2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>146250.30000000002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>73791.900000000009</v>
+      </c>
+      <c r="M3" s="2">
+        <v>141367.80000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <v>115788.75</v>
+      </c>
+      <c r="O3" s="2">
+        <v>129675</v>
+      </c>
+      <c r="P3" s="2">
+        <v>11592</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>472215.45</v>
+      </c>
+      <c r="R3" s="2">
+        <v>761414.85</v>
+      </c>
+      <c r="S3" s="2">
+        <v>21100.799999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>21043.05</v>
+      </c>
+      <c r="U3" s="2">
+        <v>63367.5</v>
+      </c>
+      <c r="V3" s="2">
+        <v>714</v>
+      </c>
+      <c r="W3" s="2">
+        <v>228868.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>46082</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22148</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2998135</v>
+      </c>
+      <c r="F4" s="2">
+        <v>71036</v>
+      </c>
+      <c r="G4" s="2">
+        <v>23255.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3148041.75</v>
+      </c>
+      <c r="I4" s="2">
+        <v>74587.8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3245884.95</v>
+      </c>
+      <c r="K4" s="2">
+        <v>165160.80000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>76396.95</v>
+      </c>
+      <c r="M4" s="2">
+        <v>113313.90000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>80021.55</v>
+      </c>
+      <c r="O4" s="2">
+        <v>74015.55</v>
+      </c>
+      <c r="P4" s="2">
+        <v>7917</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>351664.95</v>
+      </c>
+      <c r="R4" s="2">
+        <v>980204.4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>19599.3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>23286.9</v>
+      </c>
+      <c r="U4" s="2">
+        <v>44298.450000000004</v>
+      </c>
+      <c r="V4" s="2">
+        <v>637.35</v>
+      </c>
+      <c r="W4" s="2">
+        <v>253220.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>46113</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16479</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1351348</v>
+      </c>
+      <c r="F5" s="2">
+        <v>36646</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17302.95</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1418915.4000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>38478.300000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1474696.6500000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>143483.55000000002</v>
+      </c>
+      <c r="L5" s="2">
+        <v>66597.3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>84069.3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>36006.6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>48747.3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2742.6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>238163.1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>847878.15</v>
+      </c>
+      <c r="S5" s="2">
+        <v>18350.850000000002</v>
+      </c>
+      <c r="T5" s="2">
+        <v>22538.25</v>
+      </c>
+      <c r="U5" s="2">
+        <v>23706.9</v>
+      </c>
+      <c r="V5" s="2">
+        <v>555.45000000000005</v>
+      </c>
+      <c r="W5" s="2">
+        <v>245017.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>46143</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17802</v>
+      </c>
+      <c r="E6" s="2">
+        <v>877879</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21887</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18692.100000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>921772.95000000007</v>
+      </c>
+      <c r="I6" s="2">
+        <v>22981.350000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <v>963446.4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>143641.05000000002</v>
+      </c>
+      <c r="L6" s="2">
+        <v>69661.2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>70232.400000000009</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25114.95</v>
+      </c>
+      <c r="O6" s="2">
+        <v>61602.450000000004</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2373</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>228984</v>
+      </c>
+      <c r="R6" s="2">
+        <v>815873.1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>19957.350000000002</v>
+      </c>
+      <c r="T6" s="2">
+        <v>23286.9</v>
+      </c>
+      <c r="U6" s="2">
+        <v>9313.5</v>
+      </c>
+      <c r="V6" s="2">
+        <v>455.70000000000005</v>
+      </c>
+      <c r="W6" s="2">
+        <v>257349.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>46174</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16952</v>
+      </c>
+      <c r="E7" s="2">
+        <v>534667</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15917</v>
+      </c>
+      <c r="G7" s="2">
+        <v>17799.600000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>561400.35</v>
+      </c>
+      <c r="I7" s="2">
+        <v>16712.850000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>595912.80000000005</v>
+      </c>
+      <c r="K7" s="2">
+        <v>132903.75</v>
+      </c>
+      <c r="L7" s="2">
+        <v>59841.600000000006</v>
+      </c>
+      <c r="M7" s="2">
+        <v>55195.350000000006</v>
+      </c>
+      <c r="N7" s="2">
+        <v>19126.8</v>
+      </c>
+      <c r="O7" s="2">
+        <v>132611.85</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1597.05</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>268372.65000000002</v>
+      </c>
+      <c r="R7" s="2">
+        <v>852363.75</v>
+      </c>
+      <c r="S7" s="2">
+        <v>17327.100000000002</v>
+      </c>
+      <c r="T7" s="2">
+        <v>22538.25</v>
+      </c>
+      <c r="U7" s="2">
+        <v>4123.3500000000004</v>
+      </c>
+      <c r="V7" s="2">
+        <v>622.65</v>
+      </c>
+      <c r="W7" s="2">
+        <v>253872.15000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>46204</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18273</v>
+      </c>
+      <c r="E8" s="2">
+        <v>478624</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12463</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19186.650000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>502555.2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13086.150000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>534828</v>
+      </c>
+      <c r="K8" s="2">
+        <v>138026.70000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>56634.9</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54481.350000000006</v>
+      </c>
+      <c r="N8" s="2">
+        <v>19015.5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>215641.65000000002</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1487.8500000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>347261.25</v>
+      </c>
+      <c r="R8" s="2">
+        <v>768528.6</v>
+      </c>
+      <c r="S8" s="2">
+        <v>18258.45</v>
+      </c>
+      <c r="T8" s="2">
+        <v>23286.9</v>
+      </c>
+      <c r="U8" s="2">
+        <v>18258.45</v>
+      </c>
+      <c r="V8" s="2">
+        <v>780.15</v>
+      </c>
+      <c r="W8" s="2">
+        <v>268768.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>46235</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18119</v>
+      </c>
+      <c r="E9" s="2">
+        <v>407058</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11086</v>
+      </c>
+      <c r="G9" s="2">
+        <v>19024.95</v>
+      </c>
+      <c r="H9" s="2">
+        <v>427410.9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11640.300000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>458076.15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>132001.80000000002</v>
+      </c>
+      <c r="L9" s="2">
+        <v>56851.200000000004</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53438.700000000004</v>
+      </c>
+      <c r="N9" s="2">
+        <v>18523.05</v>
+      </c>
+      <c r="O9" s="2">
+        <v>216737.85</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1465.8</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>347016.60000000003</v>
+      </c>
+      <c r="R9" s="2">
+        <v>718051.95000000007</v>
+      </c>
+      <c r="S9" s="2">
+        <v>19595.100000000002</v>
+      </c>
+      <c r="T9" s="2">
+        <v>23286.9</v>
+      </c>
+      <c r="U9" s="2">
+        <v>19595.100000000002</v>
+      </c>
+      <c r="V9" s="2">
+        <v>748.65</v>
+      </c>
+      <c r="W9" s="2">
+        <v>271784.10000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>46266</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17217</v>
+      </c>
+      <c r="E10" s="2">
+        <v>427090</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13449</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18077.850000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>448444.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>14121.45</v>
+      </c>
+      <c r="J10" s="2">
+        <v>480643.80000000005</v>
+      </c>
+      <c r="K10" s="2">
+        <v>126842.1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>58374.75</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54310.200000000004</v>
+      </c>
+      <c r="N10" s="2">
+        <v>19358.850000000002</v>
+      </c>
+      <c r="O10" s="2">
+        <v>131608.05000000002</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1285.2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>264937.05</v>
+      </c>
+      <c r="R10" s="2">
+        <v>806895.6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>17853.150000000001</v>
+      </c>
+      <c r="T10" s="2">
+        <v>22538.25</v>
+      </c>
+      <c r="U10" s="2">
+        <v>17853.150000000001</v>
+      </c>
+      <c r="V10" s="2">
+        <v>670.95</v>
+      </c>
+      <c r="W10" s="2">
+        <v>251823.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>46296</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14470</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1071818</v>
+      </c>
+      <c r="F11" s="2">
+        <v>26076</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15193.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1125408.9000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>27379.800000000003</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1167982.2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>133675.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>66744.3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>82993.05</v>
+      </c>
+      <c r="N11" s="2">
+        <v>36723.75</v>
+      </c>
+      <c r="O11" s="2">
+        <v>54136.950000000004</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2742.6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>243340.65000000002</v>
+      </c>
+      <c r="R11" s="2">
+        <v>884773.05</v>
+      </c>
+      <c r="S11" s="2">
+        <v>20122.2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>23286.9</v>
+      </c>
+      <c r="U11" s="2">
+        <v>20122.2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>17412.150000000001</v>
+      </c>
+      <c r="W11" s="2">
+        <v>249304.65000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>46327</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="13">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18530</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2810922</v>
+      </c>
+      <c r="F12" s="2">
+        <v>66382</v>
+      </c>
+      <c r="G12" s="2">
+        <v>19456.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2951468.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>69701.100000000006</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3040625.7</v>
+      </c>
+      <c r="K12" s="2">
+        <v>153617.1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>77051.100000000006</v>
+      </c>
+      <c r="M12" s="2">
+        <v>112045.5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>74798.850000000006</v>
+      </c>
+      <c r="O12" s="2">
+        <v>79038.75</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6840.75</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>349774.95</v>
+      </c>
+      <c r="R12" s="2">
+        <v>904932</v>
+      </c>
+      <c r="S12" s="2">
+        <v>19737.900000000001</v>
+      </c>
+      <c r="T12" s="2">
+        <v>22538.25</v>
+      </c>
+      <c r="U12" s="2">
+        <v>19737.900000000001</v>
+      </c>
+      <c r="V12" s="2">
+        <v>495.6</v>
+      </c>
+      <c r="W12" s="2">
+        <v>249223.80000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>46357</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="14">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>19815</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5211980</v>
+      </c>
+      <c r="F13" s="2">
+        <v>94220</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20805.75</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5472579</v>
+      </c>
+      <c r="I13" s="2">
+        <v>98931</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5592315.75</v>
+      </c>
+      <c r="K13" s="2">
+        <v>178135.65</v>
+      </c>
+      <c r="L13" s="2">
+        <v>86487.45</v>
+      </c>
+      <c r="M13" s="2">
+        <v>173705.7</v>
+      </c>
+      <c r="N13" s="2">
+        <v>135538.20000000001</v>
+      </c>
+      <c r="O13" s="2">
+        <v>167609.4</v>
+      </c>
+      <c r="P13" s="2">
+        <v>12593.7</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>575934.45000000007</v>
+      </c>
+      <c r="R13" s="2">
+        <v>914380.95000000007</v>
+      </c>
+      <c r="S13" s="2">
+        <v>21023.100000000002</v>
+      </c>
+      <c r="T13" s="2">
+        <v>61700.100000000006</v>
+      </c>
+      <c r="U13" s="2">
+        <v>21023.100000000002</v>
+      </c>
+      <c r="V13" s="2">
+        <v>660.45</v>
+      </c>
+      <c r="W13" s="2">
+        <v>253559.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4CE4C-9BDE-4610-BAED-F4A2A48AEA1C}">
+  <dimension ref="A1:AI13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:AB1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="2"/>
+    <col min="26" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="14.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>46023</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20475.900000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4882350.6000000006</v>
+      </c>
+      <c r="F2" s="2">
+        <v>88077.6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>21499.695</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5126468.13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>92481.48</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5240449.3050000006</v>
+      </c>
+      <c r="K2" s="2">
+        <v>153357.435</v>
+      </c>
+      <c r="L2" s="2">
+        <v>76330.485000000015</v>
+      </c>
+      <c r="M2" s="2">
+        <v>156118.72500000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>123072.075</v>
+      </c>
+      <c r="O2" s="2">
+        <v>150385.41</v>
+      </c>
+      <c r="P2" s="2">
+        <v>11404.26</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>517310.95500000007</v>
+      </c>
+      <c r="R2" s="2">
+        <v>892812.375</v>
+      </c>
+      <c r="S2" s="2">
+        <v>21264.390000000003</v>
+      </c>
+      <c r="T2" s="2">
+        <v>20958.210000000003</v>
+      </c>
+      <c r="U2" s="2">
+        <v>69703.199999999997</v>
+      </c>
+      <c r="V2" s="2">
+        <v>8838.5849999999991</v>
+      </c>
+      <c r="W2" s="2">
+        <v>230454.315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>46054</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17946.900000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3410388</v>
+      </c>
+      <c r="F3" s="2">
+        <v>73694.7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>18844.244999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3580907.4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>77379.435000000012</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3677131.08</v>
+      </c>
+      <c r="K3" s="2">
+        <v>131625.27000000002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>66412.710000000006</v>
+      </c>
+      <c r="M3" s="2">
+        <v>127231.02000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <v>104209.875</v>
+      </c>
+      <c r="O3" s="2">
+        <v>116707.5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10432.800000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>424993.90500000003</v>
+      </c>
+      <c r="R3" s="2">
+        <v>685273.36499999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>18990.72</v>
+      </c>
+      <c r="T3" s="2">
+        <v>18938.744999999999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>57030.75</v>
+      </c>
+      <c r="V3" s="2">
+        <v>642.6</v>
+      </c>
+      <c r="W3" s="2">
+        <v>205981.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>46082</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19933.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2698321.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>63932.4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20929.86</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2833237.5750000002</v>
+      </c>
+      <c r="I4" s="2">
+        <v>67129.02</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2921296.4550000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>148644.72000000003</v>
+      </c>
+      <c r="L4" s="2">
+        <v>68757.255000000005</v>
+      </c>
+      <c r="M4" s="2">
+        <v>101982.51000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>72019.395000000004</v>
+      </c>
+      <c r="O4" s="2">
+        <v>66613.99500000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>7125.3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>316498.45500000002</v>
+      </c>
+      <c r="R4" s="2">
+        <v>882183.96000000008</v>
+      </c>
+      <c r="S4" s="2">
+        <v>17639.37</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20958.210000000003</v>
+      </c>
+      <c r="U4" s="2">
+        <v>39868.605000000003</v>
+      </c>
+      <c r="V4" s="2">
+        <v>573.61500000000001</v>
+      </c>
+      <c r="W4" s="2">
+        <v>227898.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>46113</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14831.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1216213.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32981.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15572.655000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1277023.8600000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>34630.47</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1327226.9850000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>129135.19500000002</v>
+      </c>
+      <c r="L5" s="2">
+        <v>59937.570000000007</v>
+      </c>
+      <c r="M5" s="2">
+        <v>75662.37000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>32405.94</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43872.570000000007</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2468.34</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>214346.79</v>
+      </c>
+      <c r="R5" s="2">
+        <v>763090.33500000008</v>
+      </c>
+      <c r="S5" s="2">
+        <v>16515.765000000003</v>
+      </c>
+      <c r="T5" s="2">
+        <v>20284.424999999999</v>
+      </c>
+      <c r="U5" s="2">
+        <v>21336.210000000003</v>
+      </c>
+      <c r="V5" s="2">
+        <v>499.90500000000003</v>
+      </c>
+      <c r="W5" s="2">
+        <v>220515.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>46143</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16021.800000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>790091.1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19698.3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16822.890000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>829595.65500000003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20683.215000000004</v>
+      </c>
+      <c r="J6" s="2">
+        <v>867101.76</v>
+      </c>
+      <c r="K6" s="2">
+        <v>129276.94500000002</v>
+      </c>
+      <c r="L6" s="2">
+        <v>62695.08</v>
+      </c>
+      <c r="M6" s="2">
+        <v>63209.160000000011</v>
+      </c>
+      <c r="N6" s="2">
+        <v>22603.455000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <v>55442.205000000002</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2135.7000000000003</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>206085.6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>734285.79</v>
+      </c>
+      <c r="S6" s="2">
+        <v>17961.615000000002</v>
+      </c>
+      <c r="T6" s="2">
+        <v>20958.210000000003</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8382.15</v>
+      </c>
+      <c r="V6" s="2">
+        <v>410.13000000000005</v>
+      </c>
+      <c r="W6" s="2">
+        <v>231614.77499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>46174</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15256.800000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>481200.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14325.300000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16019.640000000003</v>
+      </c>
+      <c r="H7" s="2">
+        <v>505260.315</v>
+      </c>
+      <c r="I7" s="2">
+        <v>15041.565000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>536321.52</v>
+      </c>
+      <c r="K7" s="2">
+        <v>119613.375</v>
+      </c>
+      <c r="L7" s="2">
+        <v>53857.44000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49675.81500000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>17214.12</v>
+      </c>
+      <c r="O7" s="2">
+        <v>119350.66500000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1437.345</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>241535.38500000004</v>
+      </c>
+      <c r="R7" s="2">
+        <v>767127.375</v>
+      </c>
+      <c r="S7" s="2">
+        <v>15594.390000000003</v>
+      </c>
+      <c r="T7" s="2">
+        <v>20284.424999999999</v>
+      </c>
+      <c r="U7" s="2">
+        <v>3711.0150000000003</v>
+      </c>
+      <c r="V7" s="2">
+        <v>560.38499999999999</v>
+      </c>
+      <c r="W7" s="2">
+        <v>228484.93500000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>46204</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16445.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>430761.60000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11216.7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>17267.985000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>452299.68</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11777.535000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <v>481345.2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>124224.03000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>50971.41</v>
+      </c>
+      <c r="M8" s="2">
+        <v>49033.215000000004</v>
+      </c>
+      <c r="N8" s="2">
+        <v>17113.95</v>
+      </c>
+      <c r="O8" s="2">
+        <v>194077.48500000002</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1339.0650000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>312535.125</v>
+      </c>
+      <c r="R8" s="2">
+        <v>691675.74</v>
+      </c>
+      <c r="S8" s="2">
+        <v>16432.605</v>
+      </c>
+      <c r="T8" s="2">
+        <v>20958.210000000003</v>
+      </c>
+      <c r="U8" s="2">
+        <v>16432.605</v>
+      </c>
+      <c r="V8" s="2">
+        <v>702.13499999999999</v>
+      </c>
+      <c r="W8" s="2">
+        <v>241891.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>46235</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16307.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>366352.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9977.4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>17122.455000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>384669.81000000006</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10476.27</v>
+      </c>
+      <c r="J9" s="2">
+        <v>412268.53500000003</v>
+      </c>
+      <c r="K9" s="2">
+        <v>118801.62000000002</v>
+      </c>
+      <c r="L9" s="2">
+        <v>51166.080000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>48094.83</v>
+      </c>
+      <c r="N9" s="2">
+        <v>16670.744999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <v>195064.065</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1319.22</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>312314.94000000006</v>
+      </c>
+      <c r="R9" s="2">
+        <v>646246.75500000012</v>
+      </c>
+      <c r="S9" s="2">
+        <v>17635.590000000004</v>
+      </c>
+      <c r="T9" s="2">
+        <v>20958.210000000003</v>
+      </c>
+      <c r="U9" s="2">
+        <v>17635.590000000004</v>
+      </c>
+      <c r="V9" s="2">
+        <v>673.78499999999997</v>
+      </c>
+      <c r="W9" s="2">
+        <v>244605.69000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>46266</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15495.300000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>384381</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12104.1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16270.065000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>403600.05</v>
+      </c>
+      <c r="I10" s="2">
+        <v>12709.305</v>
+      </c>
+      <c r="J10" s="2">
+        <v>432579.42000000004</v>
+      </c>
+      <c r="K10" s="2">
+        <v>114157.89000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>52537.275000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>48879.180000000008</v>
+      </c>
+      <c r="N10" s="2">
+        <v>17422.965000000004</v>
+      </c>
+      <c r="O10" s="2">
+        <v>118447.24500000002</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1156.68</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>238443.345</v>
+      </c>
+      <c r="R10" s="2">
+        <v>726206.04</v>
+      </c>
+      <c r="S10" s="2">
+        <v>16067.835000000001</v>
+      </c>
+      <c r="T10" s="2">
+        <v>20284.424999999999</v>
+      </c>
+      <c r="U10" s="2">
+        <v>16067.835000000001</v>
+      </c>
+      <c r="V10" s="2">
+        <v>603.85500000000002</v>
+      </c>
+      <c r="W10" s="2">
+        <v>226641.24000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>46296</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13023</v>
+      </c>
+      <c r="E11" s="2">
+        <v>964636.20000000007</v>
+      </c>
+      <c r="F11" s="2">
+        <v>23468.400000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13674.15</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1012868.0100000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>24641.820000000003</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1051183.98</v>
+      </c>
+      <c r="K11" s="2">
+        <v>120307.95</v>
+      </c>
+      <c r="L11" s="2">
+        <v>60069.87</v>
+      </c>
+      <c r="M11" s="2">
+        <v>74693.74500000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>33051.375</v>
+      </c>
+      <c r="O11" s="2">
+        <v>48723.255000000005</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2468.34</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>219006.58500000002</v>
+      </c>
+      <c r="R11" s="2">
+        <v>796295.74500000011</v>
+      </c>
+      <c r="S11" s="2">
+        <v>18109.98</v>
+      </c>
+      <c r="T11" s="2">
+        <v>20958.210000000003</v>
+      </c>
+      <c r="U11" s="2">
+        <v>18109.98</v>
+      </c>
+      <c r="V11" s="2">
+        <v>15670.935000000001</v>
+      </c>
+      <c r="W11" s="2">
+        <v>224374.18500000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>46327</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="13">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16677</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2529829.8000000003</v>
+      </c>
+      <c r="F12" s="2">
+        <v>59743.8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>17510.850000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2656321.29</v>
+      </c>
+      <c r="I12" s="2">
+        <v>62730.990000000005</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2736563.1300000004</v>
+      </c>
+      <c r="K12" s="2">
+        <v>138255.39000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>69345.990000000005</v>
+      </c>
+      <c r="M12" s="2">
+        <v>100840.95</v>
+      </c>
+      <c r="N12" s="2">
+        <v>67318.965000000011</v>
+      </c>
+      <c r="O12" s="2">
+        <v>71134.875</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6156.6750000000002</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>314797.45500000002</v>
+      </c>
+      <c r="R12" s="2">
+        <v>814438.8</v>
+      </c>
+      <c r="S12" s="2">
+        <v>17764.11</v>
+      </c>
+      <c r="T12" s="2">
+        <v>20284.424999999999</v>
+      </c>
+      <c r="U12" s="2">
+        <v>17764.11</v>
+      </c>
+      <c r="V12" s="2">
+        <v>446.04</v>
+      </c>
+      <c r="W12" s="2">
+        <v>224301.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>46357</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="14">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17833.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4690782</v>
+      </c>
+      <c r="F13" s="2">
+        <v>84798</v>
+      </c>
+      <c r="G13" s="2">
+        <v>18725.174999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4925321.1000000006</v>
+      </c>
+      <c r="I13" s="2">
+        <v>89037.900000000009</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5033084.1749999998</v>
+      </c>
+      <c r="K13" s="2">
+        <v>160322.08499999999</v>
+      </c>
+      <c r="L13" s="2">
+        <v>77838.705000000002</v>
+      </c>
+      <c r="M13" s="2">
+        <v>156335.13</v>
+      </c>
+      <c r="N13" s="2">
+        <v>121984.38000000002</v>
+      </c>
+      <c r="O13" s="2">
+        <v>150848.46</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11334.330000000002</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>518341.00500000006</v>
+      </c>
+      <c r="R13" s="2">
+        <v>822942.8550000001</v>
+      </c>
+      <c r="S13" s="2">
+        <v>18920.79</v>
+      </c>
+      <c r="T13" s="2">
+        <v>55530.090000000004</v>
+      </c>
+      <c r="U13" s="2">
+        <v>18920.79</v>
+      </c>
+      <c r="V13" s="2">
+        <v>594.40500000000009</v>
+      </c>
+      <c r="W13" s="2">
+        <v>228203.32500000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/사업계획최종.xlsx
+++ b/사업계획최종.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EDF174-3450-4B5E-B340-FAA603D8CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E5D38-477E-48F1-B92B-A0A47C91E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
@@ -576,16 +576,17 @@
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
@@ -2406,7 +2407,7 @@
         <v>46023</v>
       </c>
       <c r="B26" s="13">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2477,7 +2478,7 @@
         <v>46054</v>
       </c>
       <c r="B27" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C27" s="14">
         <v>2</v>
@@ -2548,7 +2549,7 @@
         <v>46082</v>
       </c>
       <c r="B28" s="13">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C28" s="13">
         <v>3</v>
@@ -2619,7 +2620,7 @@
         <v>46113</v>
       </c>
       <c r="B29" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C29" s="14">
         <v>4</v>
@@ -2690,7 +2691,7 @@
         <v>46143</v>
       </c>
       <c r="B30" s="13">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C30" s="13">
         <v>5</v>
@@ -2761,7 +2762,7 @@
         <v>46174</v>
       </c>
       <c r="B31" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C31" s="14">
         <v>6</v>
@@ -2832,7 +2833,7 @@
         <v>46204</v>
       </c>
       <c r="B32" s="13">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C32" s="13">
         <v>7</v>
@@ -2903,7 +2904,7 @@
         <v>46235</v>
       </c>
       <c r="B33" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C33" s="14">
         <v>8</v>
@@ -2974,7 +2975,7 @@
         <v>46266</v>
       </c>
       <c r="B34" s="13">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C34" s="13">
         <v>9</v>
@@ -3045,7 +3046,7 @@
         <v>46296</v>
       </c>
       <c r="B35" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C35" s="14">
         <v>10</v>
@@ -3116,7 +3117,7 @@
         <v>46327</v>
       </c>
       <c r="B36" s="13">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C36" s="13">
         <v>11</v>
@@ -3187,7 +3188,7 @@
         <v>46357</v>
       </c>
       <c r="B37" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C37" s="14">
         <v>12</v>
@@ -3258,7 +3259,7 @@
         <v>46388</v>
       </c>
       <c r="B38" s="13">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C38" s="13">
         <v>1</v>
@@ -3329,7 +3330,7 @@
         <v>46419</v>
       </c>
       <c r="B39" s="14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C39" s="14">
         <v>2</v>
@@ -3400,7 +3401,7 @@
         <v>46447</v>
       </c>
       <c r="B40" s="13">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C40" s="13">
         <v>3</v>
@@ -3471,7 +3472,7 @@
         <v>46478</v>
       </c>
       <c r="B41" s="14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C41" s="14">
         <v>4</v>
@@ -3542,7 +3543,7 @@
         <v>46508</v>
       </c>
       <c r="B42" s="13">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C42" s="13">
         <v>5</v>
@@ -3613,7 +3614,7 @@
         <v>46539</v>
       </c>
       <c r="B43" s="14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C43" s="14">
         <v>6</v>
@@ -3684,7 +3685,7 @@
         <v>46569</v>
       </c>
       <c r="B44" s="13">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C44" s="13">
         <v>7</v>
@@ -3755,7 +3756,7 @@
         <v>46600</v>
       </c>
       <c r="B45" s="14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C45" s="14">
         <v>8</v>
@@ -3826,7 +3827,7 @@
         <v>46631</v>
       </c>
       <c r="B46" s="13">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C46" s="13">
         <v>9</v>
@@ -3897,7 +3898,7 @@
         <v>46661</v>
       </c>
       <c r="B47" s="14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C47" s="14">
         <v>10</v>
@@ -3968,7 +3969,7 @@
         <v>46692</v>
       </c>
       <c r="B48" s="13">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C48" s="13">
         <v>11</v>
@@ -4039,7 +4040,7 @@
         <v>46722</v>
       </c>
       <c r="B49" s="14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C49" s="14">
         <v>12</v>

--- a/사업계획최종.xlsx
+++ b/사업계획최종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E5D38-477E-48F1-B92B-A0A47C91E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8514A8C8-B321-418B-9175-9EA1EB76E20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>취사용</t>
   </si>
@@ -52,9 +52,6 @@
     <t>열병합용</t>
   </si>
   <si>
-    <t>주한미군</t>
-  </si>
-  <si>
     <t>개별난방</t>
   </si>
   <si>
@@ -62,18 +59,6 @@
   </si>
   <si>
     <t>소계</t>
-  </si>
-  <si>
-    <t>일반용1</t>
-  </si>
-  <si>
-    <t>일반용2</t>
-  </si>
-  <si>
-    <t>업무난방</t>
-  </si>
-  <si>
-    <t>냉난방</t>
   </si>
   <si>
     <t>연료전지</t>
@@ -101,6 +86,34 @@
   </si>
   <si>
     <t>월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업용_일반용1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무용_일반용1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무용_일반용2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무용_업무난방</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무용_냉난방</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무용_주한미군</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무용_소계</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +589,10 @@
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38:B49"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,22 +600,8 @@
     <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="10.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="2"/>
     <col min="26" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.625" style="2" customWidth="1"/>
@@ -618,43 +617,43 @@
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>2</v>
@@ -663,25 +662,25 @@
         <v>3</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AI1" s="2"/>
@@ -4118,10 +4117,10 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S17:AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4159,43 +4158,43 @@
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>2</v>
@@ -4204,25 +4203,25 @@
         <v>3</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AI1" s="2"/>
@@ -5094,7 +5093,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1:AB1048576"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5132,43 +5131,43 @@
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>2</v>
@@ -5177,25 +5176,25 @@
         <v>3</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AI1" s="2"/>

--- a/사업계획최종.xlsx
+++ b/사업계획최종.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8514A8C8-B321-418B-9175-9EA1EB76E20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44968BF3-CC42-4F75-809D-EE3D11492751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D128E510-671F-48EF-8073-3332101EE63B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>취사용</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>업무용_소계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정용소계</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +593,10 @@
   <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,7 +604,11 @@
     <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.875" style="2" customWidth="1"/>
+    <col min="8" max="15" width="18.625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="11.875" style="2" customWidth="1"/>
+    <col min="19" max="23" width="10.75" style="2" customWidth="1"/>
     <col min="24" max="24" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="2"/>
     <col min="26" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -632,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>15</v>
